--- a/02_output/08_SHI/shi_mean_total_rq_no_CNratio.xlsx
+++ b/02_output/08_SHI/shi_mean_total_rq_no_CNratio.xlsx
@@ -494,7 +494,7 @@
         <v>0.566666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>5.34917398435492</v>
+        <v>4.80340558749659</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.22664440587308</v>
+        <v>3.67622964762886</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45065151353716</v>
+        <v>2.92640394145141</v>
       </c>
     </row>
     <row r="5">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2711973027682</v>
+        <v>5.6640253092226</v>
       </c>
     </row>
     <row r="6">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>5.72150682969768</v>
+        <v>4.97593119603461</v>
       </c>
     </row>
     <row r="7">
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>5.44145680535846</v>
+        <v>4.87638469455136</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.81064484812138</v>
+        <v>3.27001424186944</v>
       </c>
     </row>
     <row r="9">
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.84059791553315</v>
+        <v>4.32998792191405</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +774,7 @@
         <v>0.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.0084815364582</v>
+        <v>3.49997456591388</v>
       </c>
     </row>
     <row r="11">
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.82768810907675</v>
+        <v>4.20246786793901</v>
       </c>
     </row>
     <row r="12">
@@ -844,7 +844,7 @@
         <v>0.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.61846014558131</v>
+        <v>3.07336859141552</v>
       </c>
     </row>
   </sheetData>
